--- a/Excel book1.xlsx
+++ b/Excel book1.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6581EEAE-CC6B-4B61-9F01-DADE33D30B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C919A60A-64B2-436F-8457-3750DCFF51CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{599EE578-F49B-4FB1-9DE2-1BC2E4A0E584}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" xr2:uid="{599EE578-F49B-4FB1-9DE2-1BC2E4A0E584}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCELTESTDATASHEET" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataprovider" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -80,9 +81,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Mrs</t>
-  </si>
-  <si>
     <t>beforename</t>
   </si>
   <si>
@@ -93,6 +91,42 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>TATA motors</t>
+  </si>
+  <si>
+    <t>Organizationnam</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Phonenum</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>PNQ</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -445,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0C22A-B0E0-422B-AF6D-17BBE3E181CB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,10 +564,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,20 +575,92 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD655E-CEEB-4822-A183-4F9C7A0BF0B6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>